--- a/results/logistic/dilemma/seed-100/0.1/percents/scores-10.xlsx
+++ b/results/logistic/dilemma/seed-100/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="73">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -49,190 +49,172 @@
     <t>terrifying</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>down</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>software</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>more</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>more</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>most</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>feed</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>it</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -608,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS37"/>
+  <dimension ref="A1:BS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,25 +601,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AB1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AK1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AT1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BC1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BL1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -839,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.07383864603776744</v>
+        <v>0.06887013429163356</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -860,16 +842,16 @@
         <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.152277179868309</v>
+        <v>0.07715057441484581</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -881,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1079</v>
+        <v>85</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.04008521913428488</v>
+        <v>0.04419966001661711</v>
       </c>
       <c r="U3">
         <v>15</v>
@@ -908,16 +890,16 @@
         <v>123</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AC3">
-        <v>0.04901332970725399</v>
+        <v>0.04947918695124676</v>
       </c>
       <c r="AD3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -929,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1079</v>
+        <v>85</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.03526330100521591</v>
+        <v>0.04035055566487832</v>
       </c>
       <c r="AM3">
         <v>15</v>
@@ -956,16 +938,16 @@
         <v>123</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AU3">
-        <v>0.04279776666451161</v>
+        <v>0.04447468509442777</v>
       </c>
       <c r="AV3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -977,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.03333453375358834</v>
+        <v>0.03878597176014664</v>
       </c>
       <c r="BE3">
         <v>15</v>
@@ -1004,16 +986,16 @@
         <v>123</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="BM3">
-        <v>0.04158732365092133</v>
+        <v>0.04237845050427699</v>
       </c>
       <c r="BN3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BO3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1025,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1033,13 +1015,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03641834438887658</v>
+        <v>0.04278227377655197</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1051,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.05910301441272636</v>
+        <v>0.07098081459018496</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1075,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>52</v>
+        <v>1086</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.03122550948064849</v>
+        <v>0.03757524182777145</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1099,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AC4">
-        <v>0.0455976751252699</v>
+        <v>0.04366156778433097</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1123,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.03048367592233018</v>
+        <v>0.03676283712447027</v>
       </c>
       <c r="AM4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1147,44 +1129,44 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AU4">
-        <v>0.04130805885055982</v>
+        <v>0.04141901170199615</v>
       </c>
       <c r="AV4">
+        <v>6</v>
+      </c>
+      <c r="AW4">
+        <v>6</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>44</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4">
+        <v>0.03643261086746086</v>
+      </c>
+      <c r="BE4">
         <v>5</v>
       </c>
-      <c r="AW4">
+      <c r="BF4">
         <v>5</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>90</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD4">
-        <v>0.03031717084671223</v>
-      </c>
-      <c r="BE4">
-        <v>3</v>
-      </c>
-      <c r="BF4">
-        <v>3</v>
-      </c>
       <c r="BG4">
         <v>1</v>
       </c>
@@ -1195,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="BM4">
-        <v>0.04014454314200603</v>
+        <v>0.04047967272987887</v>
       </c>
       <c r="BN4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BO4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1219,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1227,13 +1209,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.03343287179164908</v>
+        <v>0.04032978618189736</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1245,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.05807650077851453</v>
+        <v>0.05606133104520051</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1269,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.03083645433753504</v>
+        <v>0.03708155679967078</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1293,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AC5">
-        <v>0.04418750620105806</v>
+        <v>0.04351536212683072</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1317,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.03046553755837588</v>
+        <v>0.03657476581903545</v>
       </c>
       <c r="AM5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1341,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AU5">
-        <v>0.04085035840535048</v>
+        <v>0.04126794501252552</v>
       </c>
       <c r="AV5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -1365,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.03018694249900286</v>
+        <v>0.03636876542546155</v>
       </c>
       <c r="BE5">
         <v>4</v>
@@ -1389,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="BM5">
-        <v>0.04006322996516558</v>
+        <v>0.04032656990101783</v>
       </c>
       <c r="BN5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1413,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1421,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03322714612141651</v>
+        <v>0.03776090611937308</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1439,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.05035802841053924</v>
+        <v>0.05594200348725418</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1463,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.03063072866730246</v>
+        <v>0.03646220182098636</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -1487,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AC6">
-        <v>0.04248299877369695</v>
+        <v>0.04226460092947712</v>
       </c>
       <c r="AD6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1511,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.0302598118881433</v>
+        <v>0.03625957708378766</v>
       </c>
       <c r="AM6">
         <v>3</v>
@@ -1535,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AU6">
-        <v>0.04069354705651344</v>
+        <v>0.04071444098189456</v>
       </c>
       <c r="AV6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1559,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.03011144517647965</v>
+        <v>0.03617721418230428</v>
       </c>
       <c r="BE6">
         <v>3</v>
@@ -1583,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="BM6">
-        <v>0.03998411222771595</v>
+        <v>0.04006512582618905</v>
       </c>
       <c r="BN6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1607,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1615,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03317300778714477</v>
+        <v>0.03774427862396313</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1633,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.0502499743437801</v>
+        <v>0.0508358988862681</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1657,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.03057659033303073</v>
+        <v>0.03644424897090297</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -1681,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AC7">
-        <v>0.04233455993956939</v>
+        <v>0.0400530596971219</v>
       </c>
       <c r="AD7">
         <v>4</v>
@@ -1705,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.03020567355387157</v>
+        <v>0.03624141745095723</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1729,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AU7">
-        <v>0.04026231584721161</v>
+        <v>0.0391682129918852</v>
       </c>
       <c r="AV7">
         <v>4</v>
@@ -1753,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD7">
-        <v>0.03006843085451947</v>
+        <v>0.03615897049642457</v>
       </c>
       <c r="BE7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1777,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BM7">
-        <v>0.03978467130454876</v>
+        <v>0.03879757744741621</v>
       </c>
       <c r="BN7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1801,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1809,13 +1791,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03006843085451947</v>
+        <v>0.03770270988543825</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1827,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.04995282566019247</v>
+        <v>0.04494564176163469</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -1851,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.03006843085451947</v>
+        <v>0.03639936684569448</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1875,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC8">
-        <v>0.04192635314571859</v>
+        <v>0.03901116372476864</v>
       </c>
       <c r="AD8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1899,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.03006843085451946</v>
+        <v>0.03619601836888118</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1923,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AU8">
-        <v>0.03996142675083929</v>
+        <v>0.03883051851764085</v>
       </c>
       <c r="AV8">
         <v>3</v>
@@ -1947,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD8">
-        <v>0.03005760318766512</v>
+        <v>0.03611336128172529</v>
       </c>
       <c r="BE8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1971,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BM8">
-        <v>0.03954292721341823</v>
+        <v>0.03875485169953179</v>
       </c>
       <c r="BN8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -1995,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2003,13 +1985,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03005760318766513</v>
+        <v>0.03766945489461835</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2021,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.04234240735897632</v>
+        <v>0.04001000510057195</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -2045,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.03005760318766513</v>
+        <v>0.0363634611455277</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -2069,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AC9">
-        <v>0.04037028455248504</v>
+        <v>0.0388649580672684</v>
       </c>
       <c r="AD9">
         <v>3</v>
@@ -2093,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.03005760318766511</v>
+        <v>0.03615969910322033</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2117,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AU9">
-        <v>0.03903329225911886</v>
+        <v>0.03867945182817022</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2141,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD9">
-        <v>0.03005760318766512</v>
+        <v>0.03607687390996588</v>
       </c>
       <c r="BE9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2165,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="BM9">
-        <v>0.03938469173851897</v>
+        <v>0.03860174887067075</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2189,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2197,13 +2179,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03005760318766513</v>
+        <v>0.03744498370658401</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2215,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.0342997727907236</v>
+        <v>0.03989067754262562</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2239,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.03005760318766513</v>
+        <v>0.03612109766940189</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2263,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AC10">
-        <v>0.03822046062274123</v>
+        <v>0.03878141197726825</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2287,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL10">
-        <v>0.03005760318766511</v>
+        <v>0.03598070761420073</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2314,41 +2296,41 @@
         <v>10</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AU10">
-        <v>0.03848445253818925</v>
+        <v>0.03859312800561558</v>
       </c>
       <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>38</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD10">
+        <v>0.03602215031090642</v>
+      </c>
+      <c r="BE10">
         <v>2</v>
       </c>
-      <c r="AW10">
+      <c r="BF10">
         <v>2</v>
       </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>25</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD10">
-        <v>0.03005730684220791</v>
-      </c>
-      <c r="BE10">
-        <v>3</v>
-      </c>
-      <c r="BF10">
-        <v>3</v>
-      </c>
       <c r="BG10">
         <v>1</v>
       </c>
@@ -2359,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="BM10">
-        <v>0.0388231835385037</v>
+        <v>0.038514261539893</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2383,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2391,13 +2373,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0300034648533934</v>
+        <v>0.0373452187341243</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2409,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.03392158355706661</v>
+        <v>0.03982249036665628</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2433,19 +2415,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.03000346485339339</v>
+        <v>0.03601338056890153</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -2457,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AC11">
-        <v>0.03770092470329476</v>
+        <v>0.0376768564374149</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2481,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL11">
-        <v>0.03000346485339338</v>
+        <v>0.03593530853212466</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2508,16 +2490,16 @@
         <v>15</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AU11">
-        <v>0.03763472372088733</v>
+        <v>0.03819069066445524</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2529,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD11">
-        <v>0.03000346485339339</v>
+        <v>0.03597654109620715</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2556,16 +2538,16 @@
         <v>15</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="BM11">
-        <v>0.03850341942961894</v>
+        <v>0.03840592029392528</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -2577,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2585,7 +2567,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02994932651912166</v>
+        <v>0.03522528104766871</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2603,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.03330027267320155</v>
+        <v>0.03483571332361655</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2627,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.02994932651912167</v>
+        <v>0.03587875254246872</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2651,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AC12">
-        <v>0.03684740140706128</v>
+        <v>0.0366116437899131</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -2675,103 +2657,103 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL12">
-        <v>0.02994932651912166</v>
+        <v>0.0359145440600096</v>
       </c>
       <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>63</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU12">
+        <v>0.03739979612179901</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA12">
         <v>2</v>
       </c>
-      <c r="AN12">
+      <c r="BC12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD12">
+        <v>0.0358305841505898</v>
+      </c>
+      <c r="BE12">
+        <v>3</v>
+      </c>
+      <c r="BF12">
+        <v>3</v>
+      </c>
+      <c r="BG12">
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>63</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM12">
+        <v>0.0379038860594577</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>1</v>
+      </c>
+      <c r="BR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS12">
         <v>2</v>
-      </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>20</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU12">
-        <v>0.03758278728237632</v>
-      </c>
-      <c r="AV12">
-        <v>2</v>
-      </c>
-      <c r="AW12">
-        <v>2</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>48</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD12">
-        <v>0.02994932651912166</v>
-      </c>
-      <c r="BE12">
-        <v>2</v>
-      </c>
-      <c r="BF12">
-        <v>2</v>
-      </c>
-      <c r="BG12">
-        <v>1</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>20</v>
-      </c>
-      <c r="BL12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM12">
-        <v>0.03838309624390138</v>
-      </c>
-      <c r="BN12">
-        <v>1</v>
-      </c>
-      <c r="BO12">
-        <v>1</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>1</v>
-      </c>
-      <c r="BR12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS12">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2779,7 +2761,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02990601585170428</v>
+        <v>0.03518371230914383</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2797,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.03289506992285478</v>
+        <v>0.03396632683000752</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -2821,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.02990601585170428</v>
+        <v>0.03583387041726024</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2845,43 +2827,43 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC13">
-        <v>0.03629075577908293</v>
+        <v>0.03619634349256091</v>
       </c>
       <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>2</v>
       </c>
-      <c r="AE13">
-        <v>2</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>63</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL13">
-        <v>0.02990601585170427</v>
+        <v>0.03580558626302706</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -2893,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AU13">
-        <v>0.03751711520925956</v>
+        <v>0.03735663421052168</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2920,10 +2902,10 @@
         <v>4</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD13">
-        <v>0.02990601585170428</v>
+        <v>0.03581234792328977</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2941,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="BM13">
-        <v>0.03834298851532886</v>
+        <v>0.03786014239406883</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2965,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2973,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02988436051799559</v>
+        <v>0.03503406485045427</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2991,37 +2973,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.03273298882271607</v>
+        <v>0.02954209398871482</v>
       </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>2</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>69</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.02988436051799559</v>
+        <v>0.0356722947665097</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3039,19 +3021,19 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC14">
-        <v>0.03606809752789158</v>
+        <v>0.03615457044756083</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3063,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL14">
-        <v>0.02988436051799558</v>
+        <v>0.03577187183665085</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -3087,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AU14">
-        <v>0.0374779123720503</v>
+        <v>0.03735663421052168</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3111,19 +3093,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD14">
-        <v>0.02988436051799558</v>
+        <v>0.03579411169598973</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3135,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="BM14">
-        <v>0.03830288078675635</v>
+        <v>0.03786014239406883</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3159,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3167,7 +3149,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02986270518428689</v>
+        <v>0.03493429987799456</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3185,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.02593297602219347</v>
+        <v>0.02950800040073015</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3209,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.02986270518428689</v>
+        <v>0.03556457766600934</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3233,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AC15">
-        <v>0.03562532019061474</v>
+        <v>0.03615457044756083</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3257,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL15">
-        <v>0.02986270518428689</v>
+        <v>0.0356629140396683</v>
       </c>
       <c r="AM15">
         <v>2</v>
@@ -3281,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AU15">
-        <v>0.03743870953484104</v>
+        <v>0.03733505325488302</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3305,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD15">
-        <v>0.02986270518428689</v>
+        <v>0.0357576243242303</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -3329,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="BM15">
-        <v>0.03810234214389375</v>
+        <v>0.03783827056137439</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3353,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3361,13 +3343,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02967863484776301</v>
+        <v>0.03262314599432453</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3379,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.02585193547212411</v>
+        <v>0.02950800040073015</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3409,13 +3391,13 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.02967863484776301</v>
+        <v>0.03522349186361752</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -3427,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AC16">
-        <v>0.03551399106501908</v>
+        <v>0.0361336839250608</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3451,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL16">
-        <v>0.029678634847763</v>
+        <v>0.03562919961329209</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -3475,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AU16">
-        <v>0.03724269534879476</v>
+        <v>0.03731347229924437</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3499,37 +3481,37 @@
         <v>0</v>
       </c>
       <c r="BA16">
+        <v>6</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD16">
+        <v>0.03572113695247089</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
         <v>11</v>
       </c>
-      <c r="BC16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD16">
-        <v>0.02974389719434629</v>
-      </c>
-      <c r="BE16">
-        <v>1</v>
-      </c>
-      <c r="BF16">
-        <v>1</v>
-      </c>
-      <c r="BG16">
-        <v>1</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>7</v>
-      </c>
       <c r="BL16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="BM16">
-        <v>0.03806223441532122</v>
+        <v>0.03781639872867996</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3547,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3555,13 +3537,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.02947290917753043</v>
+        <v>0.03258989100350463</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3573,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.02582492195543432</v>
+        <v>0.02949095360673782</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3603,13 +3585,13 @@
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.02947290917753043</v>
+        <v>0.03518758616345073</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -3621,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AC17">
-        <v>0.03547688135648718</v>
+        <v>0.03611279740256076</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3645,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL17">
-        <v>0.02959553048268262</v>
+        <v>0.03559288034763124</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3672,10 +3654,10 @@
         <v>7</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AU17">
-        <v>0.03720349251158549</v>
+        <v>0.03724872943232838</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3693,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="BD17">
-        <v>0.02973306952749194</v>
+        <v>0.03572112203531155</v>
       </c>
       <c r="BE17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG17">
         <v>1</v>
@@ -3717,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="BM17">
-        <v>0.0380221266867487</v>
+        <v>0.03775078323059665</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3741,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3749,13 +3731,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.02934297717527828</v>
+        <v>0.03255663601268473</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3767,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.02579790843874454</v>
+        <v>0.02947390681274548</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3797,13 +3779,13 @@
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.02934297717527827</v>
+        <v>0.03515168046328394</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -3815,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC18">
-        <v>0.03543977164795529</v>
+        <v>0.03605013783506066</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3839,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL18">
-        <v>0.02958470281582828</v>
+        <v>0.03555656108197039</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3863,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AU18">
-        <v>0.03716428967437624</v>
+        <v>0.03722714847668972</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3887,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD18">
-        <v>0.02973306952749194</v>
+        <v>0.03571201510953104</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3911,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="BM18">
-        <v>0.03798201895817618</v>
+        <v>0.03772891139790222</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3935,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3943,7 +3925,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.02662819624940944</v>
+        <v>0.03254832226497975</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3961,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.02566284085529561</v>
+        <v>0.02942276643076848</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3985,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.02922461370352349</v>
+        <v>0.03514270403824225</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4009,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC19">
-        <v>0.03525422310529584</v>
+        <v>0.03602925131256062</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4033,61 +4015,61 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>10</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL19">
+        <v>0.03554748126555518</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>12</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU19">
+        <v>0.03720556752105107</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19">
         <v>11</v>
       </c>
-      <c r="AK19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL19">
-        <v>0.02958470281582828</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>8</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU19">
-        <v>0.03712508683716698</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>14</v>
-      </c>
       <c r="BC19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BD19">
-        <v>0.0297005865269289</v>
+        <v>0.03571201510953104</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4105,31 +4087,31 @@
         <v>0</v>
       </c>
       <c r="BJ19">
+        <v>12</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM19">
+        <v>0.03770703956520778</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS19">
         <v>11</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM19">
-        <v>0.03790070578133574</v>
-      </c>
-      <c r="BN19">
-        <v>2</v>
-      </c>
-      <c r="BO19">
-        <v>2</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>1</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4137,7 +4119,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02661736858255509</v>
+        <v>0.03254832226497975</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4155,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.02563582733860583</v>
+        <v>0.02940571963677615</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4179,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.02921378603666914</v>
+        <v>0.03514270403824225</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4203,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AC20">
-        <v>0.03521711339676395</v>
+        <v>0.03600836479006059</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4227,37 +4209,37 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>11</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL20">
+        <v>0.03554748126555518</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20">
         <v>12</v>
       </c>
-      <c r="AK20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL20">
-        <v>0.02955221981526523</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>1</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>11</v>
-      </c>
       <c r="AT20" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AU20">
-        <v>0.03700747832553921</v>
+        <v>0.03716240560977374</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4275,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD20">
-        <v>0.02967893119322021</v>
+        <v>0.03570289326659118</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4302,10 +4284,10 @@
         <v>13</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="BM20">
-        <v>0.03786169577245863</v>
+        <v>0.03766329589981891</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4323,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4331,7 +4313,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02661736858255509</v>
+        <v>0.03254000851727477</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4349,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.02560881382191605</v>
+        <v>0.02938867284278381</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4373,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.02921378603666914</v>
+        <v>0.03513372761320055</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4397,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AC21">
-        <v>0.03518000368823206</v>
+        <v>0.03596659174506052</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4424,10 +4406,10 @@
         <v>13</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL21">
-        <v>0.02953056448155654</v>
+        <v>0.03553840144913997</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4448,10 +4430,10 @@
         <v>13</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AU21">
-        <v>0.03699474472423746</v>
+        <v>0.03709006192688355</v>
       </c>
       <c r="AV21">
         <v>2</v>
@@ -4469,19 +4451,19 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BD21">
-        <v>0.02967893119322021</v>
+        <v>0.03570288580801151</v>
       </c>
       <c r="BE21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG21">
         <v>1</v>
@@ -4493,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="BM21">
-        <v>0.03742051075816091</v>
+        <v>0.03737896207479124</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4517,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4525,7 +4507,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.02658488558199205</v>
+        <v>0.03251506727415985</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4543,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.02558180030522626</v>
+        <v>0.02935457925479915</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4567,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.0291813030361061</v>
+        <v>0.03510679833807546</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4591,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AC22">
-        <v>0.03514289397970017</v>
+        <v>0.03569506695256006</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4615,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL22">
-        <v>0.02953056448155654</v>
+        <v>0.03551116199989433</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4639,19 +4621,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AU22">
-        <v>0.03675952770098192</v>
+        <v>0.03688185318647115</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -4663,19 +4645,19 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="BD22">
-        <v>0.029678634847763</v>
+        <v>0.03567552773777161</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -4687,19 +4669,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BM22">
-        <v>0.03729908985274794</v>
+        <v>0.03733521840940237</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>0</v>
@@ -4711,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4719,7 +4701,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.02656323024828336</v>
+        <v>0.03247349853563497</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4737,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.02550075975515691</v>
+        <v>0.0291329709328988</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4761,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.02915964770239741</v>
+        <v>0.03506191621286698</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4785,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC23">
-        <v>0.0350315648541045</v>
+        <v>0.03565329390755999</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4809,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AL23">
-        <v>0.0295197368147022</v>
+        <v>0.03546576291781827</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4833,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AU23">
-        <v>0.03657624711623737</v>
+        <v>0.03683869127519383</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4860,10 +4842,10 @@
         <v>28</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BD23">
-        <v>0.02966810352636587</v>
+        <v>0.03562991852307235</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4881,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="BM23">
-        <v>0.03709964892958075</v>
+        <v>0.03731334657670793</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4905,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4913,7 +4895,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02656323024828336</v>
+        <v>0.03244855729252005</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4931,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.02520361107156928</v>
+        <v>0.02909887734491413</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4961,7 +4943,7 @@
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.02915964770239741</v>
+        <v>0.03503498693774189</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4979,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AC24">
-        <v>0.0346233580602537</v>
+        <v>0.03563240738505995</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5003,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL24">
-        <v>0.02950890914784786</v>
+        <v>0.03543852346857263</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5027,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AU24">
-        <v>0.03626262441856331</v>
+        <v>0.03681711031955517</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5051,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BD24">
-        <v>0.02965727585951152</v>
+        <v>0.03560255299425278</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5075,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="BM24">
-        <v>0.03705844348131283</v>
+        <v>0.03729045682650904</v>
       </c>
       <c r="BN24">
         <v>2</v>
@@ -5099,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5107,7 +5089,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02655240258142902</v>
+        <v>0.03244024354481507</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5125,13 +5107,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.024987502938051</v>
+        <v>0.0290818305509218</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5149,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.02914882003554306</v>
+        <v>0.03502601051270019</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5173,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AC25">
-        <v>0.03432648039199859</v>
+        <v>0.0352982230250594</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5197,19 +5179,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AL25">
-        <v>0.02947290917753042</v>
+        <v>0.03542944365215742</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>1</v>
@@ -5221,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AU25">
-        <v>0.03575298753484296</v>
+        <v>0.0364718150293366</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5245,13 +5227,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BD25">
-        <v>0.02961396519209413</v>
+        <v>0.03559343115131293</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5269,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="BM25">
-        <v>0.036578248458138</v>
+        <v>0.03696339725359695</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5293,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5301,7 +5283,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02654157491457467</v>
+        <v>0.03228228233842053</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5319,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.02463632722108379</v>
+        <v>0.02880908184704446</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5343,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.02913799236868872</v>
+        <v>0.03485545843690795</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5367,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AC26">
-        <v>0.03384405418108401</v>
+        <v>0.0350058117100589</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5391,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL26">
-        <v>0.02946559848043047</v>
+        <v>0.03525692714026839</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5415,13 +5397,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AU26">
-        <v>0.03532175632554113</v>
+        <v>0.03616968165039534</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5439,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BD26">
-        <v>0.02960313752523978</v>
+        <v>0.03542011613545569</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5463,13 +5445,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="BM26">
-        <v>0.03613706344384028</v>
+        <v>0.03665719159587485</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5487,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5495,7 +5477,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.02649826424715728</v>
+        <v>0.03180008497153194</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5513,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.02433917853749616</v>
+        <v>0.02857042673115178</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5537,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.02909468170127133</v>
+        <v>0.03433482578448956</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5561,13 +5543,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AC27">
-        <v>0.03343584738723321</v>
+        <v>0.03469251387255837</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5585,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.02945477081357612</v>
+        <v>0.03473029778818609</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5609,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AU27">
-        <v>0.03532175632554113</v>
+        <v>0.03584596731581544</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5633,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD27">
-        <v>0.02958148219153109</v>
+        <v>0.03489104924494411</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5657,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="BM27">
-        <v>0.03613706344384028</v>
+        <v>0.0363291141054583</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5681,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5689,7 +5671,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02648743658030294</v>
+        <v>0.03177514372841701</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5707,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.02433917853749616</v>
+        <v>0.02831472482126677</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5731,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.02908385403441698</v>
+        <v>0.03430789650936446</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5755,19 +5737,19 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AC28">
-        <v>0.03343584738723321</v>
+        <v>0.0319087612234202</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5779,13 +5761,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>60</v>
+        <v>1086</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL28">
-        <v>0.02943311547986743</v>
+        <v>0.03470305833894046</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5803,19 +5785,19 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU28">
-        <v>0.02760480959514149</v>
+        <v>0.02484239478693676</v>
       </c>
       <c r="AV28">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AW28">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -5827,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BD28">
-        <v>0.02952734385725937</v>
+        <v>0.03486368371612455</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5851,13 +5833,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BM28">
-        <v>0.02314215938634388</v>
+        <v>0.02239675667910253</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5875,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>384</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5883,7 +5865,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02646578124659425</v>
+        <v>0.03066110153595027</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5901,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.01558679913000586</v>
+        <v>0.01745591704815001</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -5925,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.02906219870070829</v>
+        <v>0.03310505555377712</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5949,13 +5931,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AC29">
-        <v>0.02141230182290074</v>
+        <v>0.02138779904003599</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -5973,13 +5955,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.0293789771455957</v>
+        <v>0.03348636293930204</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5997,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AU29">
-        <v>0.02262003706974165</v>
+        <v>0.02209889857398856</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6021,19 +6003,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="BD29">
-        <v>0.02947290917753043</v>
+        <v>0.03364135676218403</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>1</v>
@@ -6045,19 +6027,19 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BM29">
-        <v>0.01834958073169669</v>
+        <v>0.02188250743458148</v>
       </c>
       <c r="BN29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BO29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BP29">
         <v>0</v>
@@ -6069,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>1079</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6077,7 +6059,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02641164291232252</v>
+        <v>0.03017059042135671</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6095,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -6119,13 +6101,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>961</v>
+        <v>1735</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.02900806036643656</v>
+        <v>0.03257544647631701</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6143,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -6167,19 +6149,19 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>961</v>
+        <v>1735</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AL30">
-        <v>0.02934297717527827</v>
+        <v>0.03295065377080453</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>1</v>
@@ -6191,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6215,13 +6197,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>961</v>
+        <v>1735</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BD30">
-        <v>0.02935410118758982</v>
+        <v>0.0331031680287326</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6239,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BM30">
         <v>0</v>
@@ -6263,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>961</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6271,7 +6253,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.02623840024265298</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6289,13 +6271,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>43</v>
+        <v>3927</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.02883481769676702</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6313,13 +6295,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>43</v>
+        <v>3927</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.02920573447592616</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6337,19 +6319,19 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>43</v>
+        <v>3927</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.02934297717527827</v>
+        <v>0</v>
       </c>
       <c r="BE31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG31">
         <v>1</v>
@@ -6361,595 +6343,7 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>0.0260326745724204</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>62</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T32">
-        <v>0.02862909202653444</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>62</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL32">
-        <v>0.02900000880569358</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>62</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD32">
-        <v>0.02914837551735724</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>1</v>
-      </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:62">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
-        <v>0.02563205089880959</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>99</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33">
-        <v>0.02822846835292363</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>99</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL33">
-        <v>0.02859938513208277</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>1</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>99</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD33">
-        <v>0.02874775184374644</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>1</v>
-      </c>
-      <c r="BH33">
-        <v>0</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:62">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0.0255887402313922</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>103</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34">
-        <v>0.02818515768550625</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>103</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL34">
-        <v>0.02855607446466539</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>1</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>103</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD34">
-        <v>0.02870444117632905</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>1</v>
-      </c>
-      <c r="BH34">
-        <v>0</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:62">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>0.0253072208931792</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>129</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T35">
-        <v>0.02790363834729324</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>129</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL35">
-        <v>0.02827455512645238</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>129</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD35">
-        <v>0.02842292183811605</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>1</v>
-      </c>
-      <c r="BH35">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:62">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>0.01429548370230909</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1146</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T36">
-        <v>0.01689190115642313</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>1146</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL36">
-        <v>0.01726281793558227</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>1146</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD36">
-        <v>0.01741118464724594</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>1</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:62">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>2786</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>2786</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>2</v>
-      </c>
-      <c r="AN37">
-        <v>2</v>
-      </c>
-      <c r="AO37">
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>2786</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <v>2</v>
-      </c>
-      <c r="BF37">
-        <v>2</v>
-      </c>
-      <c r="BG37">
-        <v>1</v>
-      </c>
-      <c r="BH37">
-        <v>0</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>2786</v>
+        <v>3927</v>
       </c>
     </row>
   </sheetData>
